--- a/MyInternAfter/output.xlsx
+++ b/MyInternAfter/output.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>残 業 申 請 書</t>
   </si>
@@ -114,7 +114,7 @@
     <t>{{reportUsersName}}</t>
   </si>
   <si>
-    <t>申請日：2025年 1月 17日 19:36</t>
+    <t>申請日：2024年 12月 11日 17:59</t>
   </si>
   <si>
     <t>営業部</t>
@@ -123,24 +123,25 @@
     <t>社員A</t>
   </si>
   <si>
-    <t>早出A　05:30 〜 14:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">後残業　14:15　〜　21:36 　　</t>
-  </si>
-  <si>
-    <t>うううううううううううう
-ええええええええええええ
-おおおおおおおおおおおおおお</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　年　　月　　日</t>
+    <t>早出E　07:30 〜 16:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">後残業　16:15　〜　17:15 　　</t>
+  </si>
+  <si>
+    <t>資料作成のため残業します。</t>
+  </si>
+  <si>
+    <t>2024年 12月 11日</t>
+  </si>
+  <si>
+    <t>課長　XXXX XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 　　</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 　　</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1065,7 @@
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -1082,7 +1083,7 @@
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
       <c r="F26" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -1177,7 +1178,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N32" s="13"/>
     </row>
@@ -1193,7 +1194,7 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>

--- a/MyInternAfter/output.xlsx
+++ b/MyInternAfter/output.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>残 業 申 請 書</t>
   </si>
@@ -114,7 +114,7 @@
     <t>{{reportUsersName}}</t>
   </si>
   <si>
-    <t>申請日：2024年 12月 11日 17:59</t>
+    <t>申請日：2025年 1月 6日 11:03</t>
   </si>
   <si>
     <t>営業部</t>
@@ -123,25 +123,22 @@
     <t>社員A</t>
   </si>
   <si>
-    <t>早出E　07:30 〜 16:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">後残業　16:15　〜　17:15 　　</t>
-  </si>
-  <si>
-    <t>資料作成のため残業します。</t>
-  </si>
-  <si>
-    <t>2024年 12月 11日</t>
-  </si>
-  <si>
-    <t>課長　XXXX XXX</t>
+    <t>早出A　05:30 〜 14:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">後残業　14:15　〜　15:03 　　</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2025年 1月 6日</t>
+  </si>
+  <si>
+    <t>課長</t>
   </si>
   <si>
     <t xml:space="preserve"> 　　</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -1065,7 +1062,7 @@
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -1083,7 +1080,7 @@
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
       <c r="F26" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -1178,7 +1175,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N32" s="13"/>
     </row>
@@ -1194,7 +1191,7 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
